--- a/Oil price information/2558.xlsx
+++ b/Oil price information/2558.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptydvp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D36C9A-E0DC-D549-BA29-E01B117C7B79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E978C3-267F-41E8-B00B-4E6D75AD51F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" activeTab="1" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2557" sheetId="1" r:id="rId1"/>
+    <sheet name="2558" sheetId="1" r:id="rId1"/>
+    <sheet name="ค่าเฉลี่ยราคาน้ำมันแต่ละเดือน" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -98,6 +99,45 @@
   <si>
     <t>ปี 2558</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +147,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +160,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +172,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -498,6 +538,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,32 +917,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624B7881-4D5C-0745-8D44-E6A170A96F56}">
   <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A347" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="15" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="8" max="8" width="12.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="15"/>
-    <col min="11" max="11" width="13.1640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="21.453125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="13.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="15"/>
+    <col min="8" max="8" width="12.36328125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="15"/>
+    <col min="11" max="11" width="13.1796875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="15.6328125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="10.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1">
+    <row r="1" spans="1:13" ht="15.6" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -904,7 +962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" customHeight="1">
+    <row r="2" spans="1:13" ht="19.05" customHeight="1">
       <c r="A2" s="34">
         <v>240332</v>
       </c>
@@ -924,16 +982,16 @@
         <v>29.99</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1" thickBot="1">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="35">
         <v>240333</v>
       </c>
@@ -953,14 +1011,14 @@
         <v>29.99</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-    </row>
-    <row r="4" spans="1:13" ht="20" thickBot="1">
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" thickBot="1">
       <c r="A4" s="35">
         <v>240334</v>
       </c>
@@ -982,7 +1040,7 @@
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="19" customHeight="1">
+    <row r="5" spans="1:13" ht="19.05" customHeight="1">
       <c r="A5" s="35">
         <v>240335</v>
       </c>
@@ -1002,16 +1060,16 @@
         <v>26.39</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" ht="19" customHeight="1" thickBot="1">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.05" customHeight="1" thickBot="1">
       <c r="A6" s="35">
         <v>240336</v>
       </c>
@@ -1031,14 +1089,14 @@
         <v>26.39</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" thickBot="1">
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="35">
         <v>240337</v>
       </c>
@@ -1061,7 +1119,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="20" thickBot="1">
+    <row r="8" spans="1:13" ht="18" thickBot="1">
       <c r="A8" s="35">
         <v>240338</v>
       </c>
@@ -1100,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19">
+    <row r="9" spans="1:13" ht="17.399999999999999">
       <c r="A9" s="35">
         <v>240339</v>
       </c>
@@ -1144,7 +1202,7 @@
         <v>26.025483870967747</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19">
+    <row r="10" spans="1:13" ht="17.399999999999999">
       <c r="A10" s="35">
         <v>240340</v>
       </c>
@@ -1188,7 +1246,7 @@
         <v>26.214999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19">
+    <row r="11" spans="1:13" ht="17.399999999999999">
       <c r="A11" s="35">
         <v>240341</v>
       </c>
@@ -1232,7 +1290,7 @@
         <v>26.764193548387098</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19">
+    <row r="12" spans="1:13" ht="17.399999999999999">
       <c r="A12" s="35">
         <v>240342</v>
       </c>
@@ -1276,7 +1334,7 @@
         <v>25.256666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19">
+    <row r="13" spans="1:13" ht="17.399999999999999">
       <c r="A13" s="35">
         <v>240343</v>
       </c>
@@ -1320,7 +1378,7 @@
         <v>26.070645161290322</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19">
+    <row r="14" spans="1:13" ht="17.399999999999999">
       <c r="A14" s="35">
         <v>240344</v>
       </c>
@@ -1364,7 +1422,7 @@
         <v>25.896666666666679</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19">
+    <row r="15" spans="1:13" ht="17.399999999999999">
       <c r="A15" s="35">
         <v>240345</v>
       </c>
@@ -1408,7 +1466,7 @@
         <v>24.506129032258073</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19">
+    <row r="16" spans="1:13" ht="17.399999999999999">
       <c r="A16" s="35">
         <v>240346</v>
       </c>
@@ -1452,7 +1510,7 @@
         <v>22.902903225806444</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19">
+    <row r="17" spans="1:14" ht="17.399999999999999">
       <c r="A17" s="35">
         <v>240347</v>
       </c>
@@ -1496,7 +1554,7 @@
         <v>23.209999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19">
+    <row r="18" spans="1:14" ht="17.399999999999999">
       <c r="A18" s="35">
         <v>240348</v>
       </c>
@@ -1540,7 +1598,7 @@
         <v>23.309354838709677</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19">
+    <row r="19" spans="1:14" ht="17.399999999999999">
       <c r="A19" s="35">
         <v>240349</v>
       </c>
@@ -1584,7 +1642,7 @@
         <v>23.059999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" thickBot="1">
+    <row r="20" spans="1:14" ht="18" thickBot="1">
       <c r="A20" s="35">
         <v>240350</v>
       </c>
@@ -1628,7 +1686,7 @@
         <v>21.373870967741937</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" thickBot="1">
+    <row r="21" spans="1:14" ht="18" thickBot="1">
       <c r="A21" s="35">
         <v>240351</v>
       </c>
@@ -1651,7 +1709,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="19">
+    <row r="22" spans="1:14" ht="17.399999999999999">
       <c r="A22" s="35">
         <v>240352</v>
       </c>
@@ -1671,16 +1729,16 @@
         <v>25.49</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" ht="20" thickBot="1">
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="35">
         <v>240353</v>
       </c>
@@ -1700,14 +1758,14 @@
         <v>25.49</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
-    </row>
-    <row r="24" spans="1:14" ht="20" thickBot="1">
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="35">
         <v>240354</v>
       </c>
@@ -1728,7 +1786,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="20" thickBot="1">
+    <row r="25" spans="1:14" ht="18" thickBot="1">
       <c r="A25" s="35">
         <v>240355</v>
       </c>
@@ -1767,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" thickBot="1">
+    <row r="26" spans="1:14" ht="18" thickBot="1">
       <c r="A26" s="35">
         <v>240356</v>
       </c>
@@ -1811,7 +1869,7 @@
         <v>24.537671232876729</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19">
+    <row r="27" spans="1:14" ht="17.399999999999999">
       <c r="A27" s="35">
         <v>240357</v>
       </c>
@@ -1834,7 +1892,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="19">
+    <row r="28" spans="1:14" ht="17.399999999999999">
       <c r="A28" s="35">
         <v>240358</v>
       </c>
@@ -1857,7 +1915,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="19">
+    <row r="29" spans="1:14" ht="17.399999999999999">
       <c r="A29" s="35">
         <v>240359</v>
       </c>
@@ -1885,7 +1943,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="19">
+    <row r="30" spans="1:14" ht="17.399999999999999">
       <c r="A30" s="35">
         <v>240360</v>
       </c>
@@ -1913,7 +1971,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="19">
+    <row r="31" spans="1:14" ht="17.399999999999999">
       <c r="A31" s="35">
         <v>240361</v>
       </c>
@@ -1941,7 +1999,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="20" thickBot="1">
+    <row r="32" spans="1:14" ht="18" thickBot="1">
       <c r="A32" s="36">
         <v>240362</v>
       </c>
@@ -1969,7 +2027,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="19">
+    <row r="33" spans="1:14" ht="17.399999999999999">
       <c r="A33" s="34">
         <v>240363</v>
       </c>
@@ -1997,7 +2055,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="19">
+    <row r="34" spans="1:14" ht="17.399999999999999">
       <c r="A34" s="35">
         <v>240364</v>
       </c>
@@ -2025,7 +2083,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="19">
+    <row r="35" spans="1:14" ht="17.399999999999999">
       <c r="A35" s="35">
         <v>240365</v>
       </c>
@@ -2053,7 +2111,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="19">
+    <row r="36" spans="1:14" ht="17.399999999999999">
       <c r="A36" s="35">
         <v>240366</v>
       </c>
@@ -2081,7 +2139,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="19">
+    <row r="37" spans="1:14" ht="17.399999999999999">
       <c r="A37" s="35">
         <v>240367</v>
       </c>
@@ -2109,7 +2167,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="19">
+    <row r="38" spans="1:14" ht="17.399999999999999">
       <c r="A38" s="35">
         <v>240368</v>
       </c>
@@ -2137,7 +2195,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="19">
+    <row r="39" spans="1:14" ht="17.399999999999999">
       <c r="A39" s="35">
         <v>240369</v>
       </c>
@@ -2165,7 +2223,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="19">
+    <row r="40" spans="1:14" ht="17.399999999999999">
       <c r="A40" s="35">
         <v>240370</v>
       </c>
@@ -2193,7 +2251,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="19">
+    <row r="41" spans="1:14" ht="17.399999999999999">
       <c r="A41" s="35">
         <v>240371</v>
       </c>
@@ -2221,7 +2279,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="19">
+    <row r="42" spans="1:14" ht="17.399999999999999">
       <c r="A42" s="35">
         <v>240372</v>
       </c>
@@ -2244,7 +2302,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="19">
+    <row r="43" spans="1:14" ht="17.399999999999999">
       <c r="A43" s="35">
         <v>240373</v>
       </c>
@@ -2267,7 +2325,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="19">
+    <row r="44" spans="1:14" ht="17.399999999999999">
       <c r="A44" s="35">
         <v>240374</v>
       </c>
@@ -2290,7 +2348,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="19">
+    <row r="45" spans="1:14" ht="17.399999999999999">
       <c r="A45" s="35">
         <v>240375</v>
       </c>
@@ -2313,7 +2371,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="19">
+    <row r="46" spans="1:14" ht="17.399999999999999">
       <c r="A46" s="35">
         <v>240376</v>
       </c>
@@ -2336,7 +2394,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="19">
+    <row r="47" spans="1:14" ht="17.399999999999999">
       <c r="A47" s="35">
         <v>240377</v>
       </c>
@@ -2359,7 +2417,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="19">
+    <row r="48" spans="1:14" ht="17.399999999999999">
       <c r="A48" s="35">
         <v>240378</v>
       </c>
@@ -2387,7 +2445,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="19">
+    <row r="49" spans="1:14" ht="17.399999999999999">
       <c r="A49" s="35">
         <v>240379</v>
       </c>
@@ -2410,7 +2468,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="19">
+    <row r="50" spans="1:14" ht="17.399999999999999">
       <c r="A50" s="35">
         <v>240380</v>
       </c>
@@ -2433,7 +2491,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="19">
+    <row r="51" spans="1:14" ht="17.399999999999999">
       <c r="A51" s="35">
         <v>240381</v>
       </c>
@@ -2456,7 +2514,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="19">
+    <row r="52" spans="1:14" ht="17.399999999999999">
       <c r="A52" s="35">
         <v>240382</v>
       </c>
@@ -2484,7 +2542,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" ht="19">
+    <row r="53" spans="1:14" ht="17.399999999999999">
       <c r="A53" s="35">
         <v>240383</v>
       </c>
@@ -2507,7 +2565,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:14" ht="19">
+    <row r="54" spans="1:14" ht="17.399999999999999">
       <c r="A54" s="35">
         <v>240384</v>
       </c>
@@ -2530,7 +2588,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:14" ht="19">
+    <row r="55" spans="1:14" ht="17.399999999999999">
       <c r="A55" s="35">
         <v>240385</v>
       </c>
@@ -2553,7 +2611,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:14" ht="19">
+    <row r="56" spans="1:14" ht="17.399999999999999">
       <c r="A56" s="35">
         <v>240386</v>
       </c>
@@ -2576,7 +2634,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:14" ht="19">
+    <row r="57" spans="1:14" ht="17.399999999999999">
       <c r="A57" s="35">
         <v>240387</v>
       </c>
@@ -2598,7 +2656,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:14" ht="19">
+    <row r="58" spans="1:14" ht="17.399999999999999">
       <c r="A58" s="35">
         <v>240388</v>
       </c>
@@ -2620,7 +2678,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="19">
+    <row r="59" spans="1:14" ht="17.399999999999999">
       <c r="A59" s="35">
         <v>240389</v>
       </c>
@@ -2642,7 +2700,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="20" thickBot="1">
+    <row r="60" spans="1:14" ht="18" thickBot="1">
       <c r="A60" s="36">
         <v>240390</v>
       </c>
@@ -2664,7 +2722,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="19">
+    <row r="61" spans="1:14" ht="17.399999999999999">
       <c r="A61" s="34">
         <v>240391</v>
       </c>
@@ -2691,7 +2749,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="19">
+    <row r="62" spans="1:14" ht="17.399999999999999">
       <c r="A62" s="35">
         <v>240392</v>
       </c>
@@ -2718,7 +2776,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="19">
+    <row r="63" spans="1:14" ht="17.399999999999999">
       <c r="A63" s="35">
         <v>240393</v>
       </c>
@@ -2745,7 +2803,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="19">
+    <row r="64" spans="1:14" ht="17.399999999999999">
       <c r="A64" s="35">
         <v>240394</v>
       </c>
@@ -2772,7 +2830,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="19">
+    <row r="65" spans="1:14" ht="17.399999999999999">
       <c r="A65" s="35">
         <v>240395</v>
       </c>
@@ -2799,7 +2857,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="19">
+    <row r="66" spans="1:14" ht="17.399999999999999">
       <c r="A66" s="35">
         <v>240396</v>
       </c>
@@ -2821,7 +2879,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="19">
+    <row r="67" spans="1:14" ht="17.399999999999999">
       <c r="A67" s="35">
         <v>240397</v>
       </c>
@@ -2848,7 +2906,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="19">
+    <row r="68" spans="1:14" ht="17.399999999999999">
       <c r="A68" s="35">
         <v>240398</v>
       </c>
@@ -2875,7 +2933,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="19">
+    <row r="69" spans="1:14" ht="17.399999999999999">
       <c r="A69" s="35">
         <v>240399</v>
       </c>
@@ -2897,7 +2955,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="19">
+    <row r="70" spans="1:14" ht="17.399999999999999">
       <c r="A70" s="35">
         <v>240400</v>
       </c>
@@ -2919,7 +2977,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="19">
+    <row r="71" spans="1:14" ht="17.399999999999999">
       <c r="A71" s="35">
         <v>240401</v>
       </c>
@@ -2946,7 +3004,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="19">
+    <row r="72" spans="1:14" ht="17.399999999999999">
       <c r="A72" s="35">
         <v>240402</v>
       </c>
@@ -2973,7 +3031,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="19">
+    <row r="73" spans="1:14" ht="17.399999999999999">
       <c r="A73" s="35">
         <v>240403</v>
       </c>
@@ -2995,7 +3053,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="19">
+    <row r="74" spans="1:14" ht="17.399999999999999">
       <c r="A74" s="35">
         <v>240404</v>
       </c>
@@ -3022,7 +3080,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="19">
+    <row r="75" spans="1:14" ht="17.399999999999999">
       <c r="A75" s="35">
         <v>240405</v>
       </c>
@@ -3044,7 +3102,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="19">
+    <row r="76" spans="1:14" ht="17.399999999999999">
       <c r="A76" s="35">
         <v>240406</v>
       </c>
@@ -3071,7 +3129,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="19">
+    <row r="77" spans="1:14" ht="17.399999999999999">
       <c r="A77" s="35">
         <v>240407</v>
       </c>
@@ -3098,7 +3156,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="19">
+    <row r="78" spans="1:14" ht="17.399999999999999">
       <c r="A78" s="35">
         <v>240408</v>
       </c>
@@ -3125,7 +3183,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="19">
+    <row r="79" spans="1:14" ht="17.399999999999999">
       <c r="A79" s="35">
         <v>240409</v>
       </c>
@@ -3152,7 +3210,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="19">
+    <row r="80" spans="1:14" ht="17.399999999999999">
       <c r="A80" s="35">
         <v>240410</v>
       </c>
@@ -3179,7 +3237,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="19">
+    <row r="81" spans="1:14" ht="17.399999999999999">
       <c r="A81" s="35">
         <v>240411</v>
       </c>
@@ -3199,7 +3257,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="19">
+    <row r="82" spans="1:14" ht="17.399999999999999">
       <c r="A82" s="35">
         <v>240412</v>
       </c>
@@ -3219,7 +3277,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="19">
+    <row r="83" spans="1:14" ht="17.399999999999999">
       <c r="A83" s="35">
         <v>240413</v>
       </c>
@@ -3239,7 +3297,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="19">
+    <row r="84" spans="1:14" ht="17.399999999999999">
       <c r="A84" s="35">
         <v>240414</v>
       </c>
@@ -3259,7 +3317,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="19">
+    <row r="85" spans="1:14" ht="17.399999999999999">
       <c r="A85" s="35">
         <v>240415</v>
       </c>
@@ -3279,7 +3337,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="19">
+    <row r="86" spans="1:14" ht="17.399999999999999">
       <c r="A86" s="35">
         <v>240416</v>
       </c>
@@ -3299,7 +3357,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="19">
+    <row r="87" spans="1:14" ht="17.399999999999999">
       <c r="A87" s="35">
         <v>240417</v>
       </c>
@@ -3319,7 +3377,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="19">
+    <row r="88" spans="1:14" ht="17.399999999999999">
       <c r="A88" s="35">
         <v>240418</v>
       </c>
@@ -3339,7 +3397,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="19">
+    <row r="89" spans="1:14" ht="17.399999999999999">
       <c r="A89" s="35">
         <v>240419</v>
       </c>
@@ -3359,7 +3417,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="19">
+    <row r="90" spans="1:14" ht="17.399999999999999">
       <c r="A90" s="35">
         <v>240420</v>
       </c>
@@ -3379,7 +3437,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20" thickBot="1">
+    <row r="91" spans="1:14" ht="18" thickBot="1">
       <c r="A91" s="36">
         <v>240421</v>
       </c>
@@ -3399,7 +3457,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="19">
+    <row r="92" spans="1:14" ht="17.399999999999999">
       <c r="A92" s="34">
         <v>240422</v>
       </c>
@@ -3419,7 +3477,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="19">
+    <row r="93" spans="1:14" ht="17.399999999999999">
       <c r="A93" s="35">
         <v>240423</v>
       </c>
@@ -3439,7 +3497,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="19">
+    <row r="94" spans="1:14" ht="17.399999999999999">
       <c r="A94" s="35">
         <v>240424</v>
       </c>
@@ -3459,7 +3517,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="19">
+    <row r="95" spans="1:14" ht="17.399999999999999">
       <c r="A95" s="35">
         <v>240425</v>
       </c>
@@ -3479,7 +3537,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="19">
+    <row r="96" spans="1:14" ht="17.399999999999999">
       <c r="A96" s="35">
         <v>240426</v>
       </c>
@@ -3506,7 +3564,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="19">
+    <row r="97" spans="1:14" ht="17.399999999999999">
       <c r="A97" s="35">
         <v>240427</v>
       </c>
@@ -3533,7 +3591,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="19">
+    <row r="98" spans="1:14" ht="17.399999999999999">
       <c r="A98" s="35">
         <v>240428</v>
       </c>
@@ -3553,7 +3611,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="19">
+    <row r="99" spans="1:14" ht="17.399999999999999">
       <c r="A99" s="35">
         <v>240429</v>
       </c>
@@ -3573,7 +3631,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="19">
+    <row r="100" spans="1:14" ht="17.399999999999999">
       <c r="A100" s="35">
         <v>240430</v>
       </c>
@@ -3593,7 +3651,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="19">
+    <row r="101" spans="1:14" ht="17.399999999999999">
       <c r="A101" s="35">
         <v>240431</v>
       </c>
@@ -3613,7 +3671,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="19">
+    <row r="102" spans="1:14" ht="17.399999999999999">
       <c r="A102" s="35">
         <v>240432</v>
       </c>
@@ -3633,7 +3691,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="19">
+    <row r="103" spans="1:14" ht="17.399999999999999">
       <c r="A103" s="35">
         <v>240433</v>
       </c>
@@ -3653,7 +3711,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="19">
+    <row r="104" spans="1:14" ht="17.399999999999999">
       <c r="A104" s="35">
         <v>240434</v>
       </c>
@@ -3673,7 +3731,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="19">
+    <row r="105" spans="1:14" ht="17.399999999999999">
       <c r="A105" s="35">
         <v>240435</v>
       </c>
@@ -3693,7 +3751,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="19">
+    <row r="106" spans="1:14" ht="17.399999999999999">
       <c r="A106" s="35">
         <v>240436</v>
       </c>
@@ -3713,7 +3771,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="19">
+    <row r="107" spans="1:14" ht="17.399999999999999">
       <c r="A107" s="35">
         <v>240437</v>
       </c>
@@ -3733,7 +3791,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="19">
+    <row r="108" spans="1:14" ht="17.399999999999999">
       <c r="A108" s="35">
         <v>240438</v>
       </c>
@@ -3753,7 +3811,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="19">
+    <row r="109" spans="1:14" ht="17.399999999999999">
       <c r="A109" s="35">
         <v>240439</v>
       </c>
@@ -3773,7 +3831,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="19">
+    <row r="110" spans="1:14" ht="17.399999999999999">
       <c r="A110" s="35">
         <v>240440</v>
       </c>
@@ -3793,7 +3851,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="19">
+    <row r="111" spans="1:14" ht="17.399999999999999">
       <c r="A111" s="35">
         <v>240441</v>
       </c>
@@ -3813,7 +3871,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="19">
+    <row r="112" spans="1:14" ht="17.399999999999999">
       <c r="A112" s="35">
         <v>240442</v>
       </c>
@@ -3833,7 +3891,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="19">
+    <row r="113" spans="1:14" ht="17.399999999999999">
       <c r="A113" s="35">
         <v>240443</v>
       </c>
@@ -3853,7 +3911,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="19">
+    <row r="114" spans="1:14" ht="17.399999999999999">
       <c r="A114" s="35">
         <v>240444</v>
       </c>
@@ -3873,7 +3931,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="19">
+    <row r="115" spans="1:14" ht="17.399999999999999">
       <c r="A115" s="35">
         <v>240445</v>
       </c>
@@ -3893,7 +3951,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="19">
+    <row r="116" spans="1:14" ht="17.399999999999999">
       <c r="A116" s="35">
         <v>240446</v>
       </c>
@@ -3913,7 +3971,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="19">
+    <row r="117" spans="1:14" ht="17.399999999999999">
       <c r="A117" s="35">
         <v>240447</v>
       </c>
@@ -3933,7 +3991,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="19">
+    <row r="118" spans="1:14" ht="17.399999999999999">
       <c r="A118" s="35">
         <v>240448</v>
       </c>
@@ -3953,7 +4011,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="19">
+    <row r="119" spans="1:14" ht="17.399999999999999">
       <c r="A119" s="35">
         <v>240449</v>
       </c>
@@ -3973,7 +4031,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="19">
+    <row r="120" spans="1:14" ht="17.399999999999999">
       <c r="A120" s="35">
         <v>240450</v>
       </c>
@@ -3993,7 +4051,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="20" thickBot="1">
+    <row r="121" spans="1:14" ht="18" thickBot="1">
       <c r="A121" s="36">
         <v>240451</v>
       </c>
@@ -4013,7 +4071,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="19">
+    <row r="122" spans="1:14" ht="17.399999999999999">
       <c r="A122" s="34">
         <v>240452</v>
       </c>
@@ -4033,7 +4091,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="19">
+    <row r="123" spans="1:14" ht="17.399999999999999">
       <c r="A123" s="35">
         <v>240453</v>
       </c>
@@ -4053,7 +4111,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="19">
+    <row r="124" spans="1:14" ht="17.399999999999999">
       <c r="A124" s="35">
         <v>240454</v>
       </c>
@@ -4073,7 +4131,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="19">
+    <row r="125" spans="1:14" ht="17.399999999999999">
       <c r="A125" s="35">
         <v>240455</v>
       </c>
@@ -4100,7 +4158,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="19">
+    <row r="126" spans="1:14" ht="17.399999999999999">
       <c r="A126" s="35">
         <v>240456</v>
       </c>
@@ -4127,7 +4185,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="19">
+    <row r="127" spans="1:14" ht="17.399999999999999">
       <c r="A127" s="35">
         <v>240457</v>
       </c>
@@ -4154,7 +4212,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="19">
+    <row r="128" spans="1:14" ht="17.399999999999999">
       <c r="A128" s="35">
         <v>240458</v>
       </c>
@@ -4174,7 +4232,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="19">
+    <row r="129" spans="1:6" ht="17.399999999999999">
       <c r="A129" s="35">
         <v>240459</v>
       </c>
@@ -4194,7 +4252,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="19">
+    <row r="130" spans="1:6" ht="17.399999999999999">
       <c r="A130" s="35">
         <v>240460</v>
       </c>
@@ -4214,7 +4272,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="19">
+    <row r="131" spans="1:6" ht="17.399999999999999">
       <c r="A131" s="35">
         <v>240461</v>
       </c>
@@ -4234,7 +4292,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="19">
+    <row r="132" spans="1:6" ht="17.399999999999999">
       <c r="A132" s="35">
         <v>240462</v>
       </c>
@@ -4254,7 +4312,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="19">
+    <row r="133" spans="1:6" ht="17.399999999999999">
       <c r="A133" s="35">
         <v>240463</v>
       </c>
@@ -4274,7 +4332,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="19">
+    <row r="134" spans="1:6" ht="17.399999999999999">
       <c r="A134" s="35">
         <v>240464</v>
       </c>
@@ -4294,7 +4352,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="19">
+    <row r="135" spans="1:6" ht="17.399999999999999">
       <c r="A135" s="35">
         <v>240465</v>
       </c>
@@ -4314,7 +4372,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="19">
+    <row r="136" spans="1:6" ht="17.399999999999999">
       <c r="A136" s="35">
         <v>240466</v>
       </c>
@@ -4334,7 +4392,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="19">
+    <row r="137" spans="1:6" ht="17.399999999999999">
       <c r="A137" s="35">
         <v>240467</v>
       </c>
@@ -4354,7 +4412,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="19">
+    <row r="138" spans="1:6" ht="17.399999999999999">
       <c r="A138" s="35">
         <v>240468</v>
       </c>
@@ -4374,7 +4432,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19">
+    <row r="139" spans="1:6" ht="17.399999999999999">
       <c r="A139" s="35">
         <v>240469</v>
       </c>
@@ -4394,7 +4452,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="19">
+    <row r="140" spans="1:6" ht="17.399999999999999">
       <c r="A140" s="35">
         <v>240470</v>
       </c>
@@ -4414,7 +4472,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="19">
+    <row r="141" spans="1:6" ht="17.399999999999999">
       <c r="A141" s="35">
         <v>240471</v>
       </c>
@@ -4434,7 +4492,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="19">
+    <row r="142" spans="1:6" ht="17.399999999999999">
       <c r="A142" s="35">
         <v>240472</v>
       </c>
@@ -4454,7 +4512,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="19">
+    <row r="143" spans="1:6" ht="17.399999999999999">
       <c r="A143" s="35">
         <v>240473</v>
       </c>
@@ -4474,7 +4532,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="19">
+    <row r="144" spans="1:6" ht="17.399999999999999">
       <c r="A144" s="35">
         <v>240474</v>
       </c>
@@ -4494,7 +4552,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="19">
+    <row r="145" spans="1:14" ht="17.399999999999999">
       <c r="A145" s="35">
         <v>240475</v>
       </c>
@@ -4514,7 +4572,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="19">
+    <row r="146" spans="1:14" ht="17.399999999999999">
       <c r="A146" s="35">
         <v>240476</v>
       </c>
@@ -4534,7 +4592,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="19">
+    <row r="147" spans="1:14" ht="17.399999999999999">
       <c r="A147" s="35">
         <v>240477</v>
       </c>
@@ -4554,7 +4612,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="19">
+    <row r="148" spans="1:14" ht="17.399999999999999">
       <c r="A148" s="35">
         <v>240478</v>
       </c>
@@ -4574,7 +4632,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="19">
+    <row r="149" spans="1:14" ht="17.399999999999999">
       <c r="A149" s="35">
         <v>240479</v>
       </c>
@@ -4594,7 +4652,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="19">
+    <row r="150" spans="1:14" ht="17.399999999999999">
       <c r="A150" s="35">
         <v>240480</v>
       </c>
@@ -4614,7 +4672,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="19">
+    <row r="151" spans="1:14" ht="17.399999999999999">
       <c r="A151" s="35">
         <v>240481</v>
       </c>
@@ -4634,7 +4692,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="20" thickBot="1">
+    <row r="152" spans="1:14" ht="18" thickBot="1">
       <c r="A152" s="36">
         <v>240482</v>
       </c>
@@ -4654,7 +4712,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="19">
+    <row r="153" spans="1:14" ht="17.399999999999999">
       <c r="A153" s="34">
         <v>240483</v>
       </c>
@@ -4674,7 +4732,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="19">
+    <row r="154" spans="1:14" ht="17.399999999999999">
       <c r="A154" s="35">
         <v>240484</v>
       </c>
@@ -4694,7 +4752,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="19">
+    <row r="155" spans="1:14" ht="17.399999999999999">
       <c r="A155" s="35">
         <v>240485</v>
       </c>
@@ -4714,7 +4772,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="19">
+    <row r="156" spans="1:14" ht="17.399999999999999">
       <c r="A156" s="35">
         <v>240486</v>
       </c>
@@ -4734,7 +4792,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="19">
+    <row r="157" spans="1:14" ht="17.399999999999999">
       <c r="A157" s="35">
         <v>240487</v>
       </c>
@@ -4761,7 +4819,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="19">
+    <row r="158" spans="1:14" ht="17.399999999999999">
       <c r="A158" s="35">
         <v>240488</v>
       </c>
@@ -4788,7 +4846,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="19">
+    <row r="159" spans="1:14" ht="17.399999999999999">
       <c r="A159" s="35">
         <v>240489</v>
       </c>
@@ -4815,7 +4873,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="19">
+    <row r="160" spans="1:14" ht="17.399999999999999">
       <c r="A160" s="35">
         <v>240490</v>
       </c>
@@ -4842,7 +4900,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="19">
+    <row r="161" spans="1:6" ht="17.399999999999999">
       <c r="A161" s="35">
         <v>240491</v>
       </c>
@@ -4862,7 +4920,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="19">
+    <row r="162" spans="1:6" ht="17.399999999999999">
       <c r="A162" s="35">
         <v>240492</v>
       </c>
@@ -4882,7 +4940,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="19">
+    <row r="163" spans="1:6" ht="17.399999999999999">
       <c r="A163" s="35">
         <v>240493</v>
       </c>
@@ -4902,7 +4960,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="19">
+    <row r="164" spans="1:6" ht="17.399999999999999">
       <c r="A164" s="35">
         <v>240494</v>
       </c>
@@ -4922,7 +4980,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="19">
+    <row r="165" spans="1:6" ht="17.399999999999999">
       <c r="A165" s="35">
         <v>240495</v>
       </c>
@@ -4942,7 +5000,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="19">
+    <row r="166" spans="1:6" ht="17.399999999999999">
       <c r="A166" s="35">
         <v>240496</v>
       </c>
@@ -4962,7 +5020,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="19">
+    <row r="167" spans="1:6" ht="17.399999999999999">
       <c r="A167" s="35">
         <v>240497</v>
       </c>
@@ -4982,7 +5040,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="19">
+    <row r="168" spans="1:6" ht="17.399999999999999">
       <c r="A168" s="35">
         <v>240498</v>
       </c>
@@ -5002,7 +5060,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="19">
+    <row r="169" spans="1:6" ht="17.399999999999999">
       <c r="A169" s="35">
         <v>240499</v>
       </c>
@@ -5022,7 +5080,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="19">
+    <row r="170" spans="1:6" ht="17.399999999999999">
       <c r="A170" s="35">
         <v>240500</v>
       </c>
@@ -5042,7 +5100,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="19">
+    <row r="171" spans="1:6" ht="17.399999999999999">
       <c r="A171" s="35">
         <v>240501</v>
       </c>
@@ -5062,7 +5120,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="19">
+    <row r="172" spans="1:6" ht="17.399999999999999">
       <c r="A172" s="35">
         <v>240502</v>
       </c>
@@ -5082,7 +5140,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="19">
+    <row r="173" spans="1:6" ht="17.399999999999999">
       <c r="A173" s="35">
         <v>240503</v>
       </c>
@@ -5102,7 +5160,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="19">
+    <row r="174" spans="1:6" ht="17.399999999999999">
       <c r="A174" s="35">
         <v>240504</v>
       </c>
@@ -5122,7 +5180,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="19">
+    <row r="175" spans="1:6" ht="17.399999999999999">
       <c r="A175" s="35">
         <v>240505</v>
       </c>
@@ -5142,7 +5200,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="19">
+    <row r="176" spans="1:6" ht="17.399999999999999">
       <c r="A176" s="35">
         <v>240506</v>
       </c>
@@ -5162,7 +5220,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="19">
+    <row r="177" spans="1:14" ht="17.399999999999999">
       <c r="A177" s="35">
         <v>240507</v>
       </c>
@@ -5182,7 +5240,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="19">
+    <row r="178" spans="1:14" ht="17.399999999999999">
       <c r="A178" s="35">
         <v>240508</v>
       </c>
@@ -5202,7 +5260,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="19">
+    <row r="179" spans="1:14" ht="17.399999999999999">
       <c r="A179" s="35">
         <v>240509</v>
       </c>
@@ -5222,7 +5280,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="19">
+    <row r="180" spans="1:14" ht="17.399999999999999">
       <c r="A180" s="35">
         <v>240510</v>
       </c>
@@ -5242,7 +5300,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="19">
+    <row r="181" spans="1:14" ht="17.399999999999999">
       <c r="A181" s="35">
         <v>240511</v>
       </c>
@@ -5262,7 +5320,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="20" thickBot="1">
+    <row r="182" spans="1:14" ht="18" thickBot="1">
       <c r="A182" s="36">
         <v>240512</v>
       </c>
@@ -5282,7 +5340,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="19">
+    <row r="183" spans="1:14" ht="17.399999999999999">
       <c r="A183" s="34">
         <v>240513</v>
       </c>
@@ -5302,7 +5360,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="19">
+    <row r="184" spans="1:14" ht="17.399999999999999">
       <c r="A184" s="35">
         <v>240514</v>
       </c>
@@ -5322,7 +5380,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="19">
+    <row r="185" spans="1:14" ht="17.399999999999999">
       <c r="A185" s="35">
         <v>240515</v>
       </c>
@@ -5342,7 +5400,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="19">
+    <row r="186" spans="1:14" ht="17.399999999999999">
       <c r="A186" s="35">
         <v>240516</v>
       </c>
@@ -5362,7 +5420,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="19">
+    <row r="187" spans="1:14" ht="17.399999999999999">
       <c r="A187" s="35">
         <v>240517</v>
       </c>
@@ -5382,7 +5440,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="19">
+    <row r="188" spans="1:14" ht="17.399999999999999">
       <c r="A188" s="35">
         <v>240518</v>
       </c>
@@ -5402,7 +5460,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="19">
+    <row r="189" spans="1:14" ht="17.399999999999999">
       <c r="A189" s="35">
         <v>240519</v>
       </c>
@@ -5422,7 +5480,7 @@
         <v>25.59</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="19">
+    <row r="190" spans="1:14" ht="17.399999999999999">
       <c r="A190" s="35">
         <v>240520</v>
       </c>
@@ -5449,7 +5507,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="19">
+    <row r="191" spans="1:14" ht="17.399999999999999">
       <c r="A191" s="35">
         <v>240521</v>
       </c>
@@ -5469,7 +5527,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="19">
+    <row r="192" spans="1:14" ht="17.399999999999999">
       <c r="A192" s="35">
         <v>240522</v>
       </c>
@@ -5489,7 +5547,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="19">
+    <row r="193" spans="1:6" ht="17.399999999999999">
       <c r="A193" s="35">
         <v>240523</v>
       </c>
@@ -5509,7 +5567,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="19">
+    <row r="194" spans="1:6" ht="17.399999999999999">
       <c r="A194" s="35">
         <v>240524</v>
       </c>
@@ -5529,7 +5587,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="19">
+    <row r="195" spans="1:6" ht="17.399999999999999">
       <c r="A195" s="35">
         <v>240525</v>
       </c>
@@ -5549,7 +5607,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="19">
+    <row r="196" spans="1:6" ht="17.399999999999999">
       <c r="A196" s="35">
         <v>240526</v>
       </c>
@@ -5569,7 +5627,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="19">
+    <row r="197" spans="1:6" ht="17.399999999999999">
       <c r="A197" s="35">
         <v>240527</v>
       </c>
@@ -5589,7 +5647,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="19">
+    <row r="198" spans="1:6" ht="17.399999999999999">
       <c r="A198" s="35">
         <v>240528</v>
       </c>
@@ -5609,7 +5667,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="19">
+    <row r="199" spans="1:6" ht="17.399999999999999">
       <c r="A199" s="35">
         <v>240529</v>
       </c>
@@ -5629,7 +5687,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="19">
+    <row r="200" spans="1:6" ht="17.399999999999999">
       <c r="A200" s="35">
         <v>240530</v>
       </c>
@@ -5649,7 +5707,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="19">
+    <row r="201" spans="1:6" ht="17.399999999999999">
       <c r="A201" s="35">
         <v>240531</v>
       </c>
@@ -5669,7 +5727,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="19">
+    <row r="202" spans="1:6" ht="17.399999999999999">
       <c r="A202" s="35">
         <v>240532</v>
       </c>
@@ -5689,7 +5747,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="19">
+    <row r="203" spans="1:6" ht="17.399999999999999">
       <c r="A203" s="35">
         <v>240533</v>
       </c>
@@ -5709,7 +5767,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="19">
+    <row r="204" spans="1:6" ht="17.399999999999999">
       <c r="A204" s="35">
         <v>240534</v>
       </c>
@@ -5729,7 +5787,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="19">
+    <row r="205" spans="1:6" ht="17.399999999999999">
       <c r="A205" s="35">
         <v>240535</v>
       </c>
@@ -5749,7 +5807,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="19">
+    <row r="206" spans="1:6" ht="17.399999999999999">
       <c r="A206" s="35">
         <v>240536</v>
       </c>
@@ -5769,7 +5827,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="19">
+    <row r="207" spans="1:6" ht="17.399999999999999">
       <c r="A207" s="35">
         <v>240537</v>
       </c>
@@ -5789,7 +5847,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="19">
+    <row r="208" spans="1:6" ht="17.399999999999999">
       <c r="A208" s="35">
         <v>240538</v>
       </c>
@@ -5809,7 +5867,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="19">
+    <row r="209" spans="1:14" ht="17.399999999999999">
       <c r="A209" s="35">
         <v>240539</v>
       </c>
@@ -5829,7 +5887,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="19">
+    <row r="210" spans="1:14" ht="17.399999999999999">
       <c r="A210" s="35">
         <v>240540</v>
       </c>
@@ -5849,7 +5907,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="19">
+    <row r="211" spans="1:14" ht="17.399999999999999">
       <c r="A211" s="35">
         <v>240541</v>
       </c>
@@ -5869,7 +5927,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="19">
+    <row r="212" spans="1:14" ht="17.399999999999999">
       <c r="A212" s="35">
         <v>240542</v>
       </c>
@@ -5889,7 +5947,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="20" thickBot="1">
+    <row r="213" spans="1:14" ht="18" thickBot="1">
       <c r="A213" s="36">
         <v>240543</v>
       </c>
@@ -5909,7 +5967,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="19">
+    <row r="214" spans="1:14" ht="17.399999999999999">
       <c r="A214" s="34">
         <v>240544</v>
       </c>
@@ -5929,7 +5987,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="19">
+    <row r="215" spans="1:14" ht="17.399999999999999">
       <c r="A215" s="35">
         <v>240545</v>
       </c>
@@ -5949,7 +6007,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="19">
+    <row r="216" spans="1:14" ht="17.399999999999999">
       <c r="A216" s="35">
         <v>240546</v>
       </c>
@@ -5969,7 +6027,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="19">
+    <row r="217" spans="1:14" ht="17.399999999999999">
       <c r="A217" s="35">
         <v>240547</v>
       </c>
@@ -5989,7 +6047,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="19">
+    <row r="218" spans="1:14" ht="17.399999999999999">
       <c r="A218" s="35">
         <v>240548</v>
       </c>
@@ -6016,7 +6074,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="1:14" ht="19">
+    <row r="219" spans="1:14" ht="17.399999999999999">
       <c r="A219" s="35">
         <v>240549</v>
       </c>
@@ -6043,7 +6101,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="1:14" ht="19">
+    <row r="220" spans="1:14" ht="17.399999999999999">
       <c r="A220" s="35">
         <v>240550</v>
       </c>
@@ -6063,7 +6121,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="19">
+    <row r="221" spans="1:14" ht="17.399999999999999">
       <c r="A221" s="35">
         <v>240551</v>
       </c>
@@ -6083,7 +6141,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="19">
+    <row r="222" spans="1:14" ht="17.399999999999999">
       <c r="A222" s="35">
         <v>240552</v>
       </c>
@@ -6103,7 +6161,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="19">
+    <row r="223" spans="1:14" ht="17.399999999999999">
       <c r="A223" s="35">
         <v>240553</v>
       </c>
@@ -6123,7 +6181,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="19">
+    <row r="224" spans="1:14" ht="17.399999999999999">
       <c r="A224" s="35">
         <v>240554</v>
       </c>
@@ -6143,7 +6201,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19">
+    <row r="225" spans="1:6" ht="17.399999999999999">
       <c r="A225" s="35">
         <v>240555</v>
       </c>
@@ -6163,7 +6221,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19">
+    <row r="226" spans="1:6" ht="17.399999999999999">
       <c r="A226" s="35">
         <v>240556</v>
       </c>
@@ -6183,7 +6241,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="19">
+    <row r="227" spans="1:6" ht="17.399999999999999">
       <c r="A227" s="35">
         <v>240557</v>
       </c>
@@ -6203,7 +6261,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="19">
+    <row r="228" spans="1:6" ht="17.399999999999999">
       <c r="A228" s="35">
         <v>240558</v>
       </c>
@@ -6223,7 +6281,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="19">
+    <row r="229" spans="1:6" ht="17.399999999999999">
       <c r="A229" s="35">
         <v>240559</v>
       </c>
@@ -6243,7 +6301,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19">
+    <row r="230" spans="1:6" ht="17.399999999999999">
       <c r="A230" s="35">
         <v>240560</v>
       </c>
@@ -6263,7 +6321,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="19">
+    <row r="231" spans="1:6" ht="17.399999999999999">
       <c r="A231" s="35">
         <v>240561</v>
       </c>
@@ -6283,7 +6341,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="19">
+    <row r="232" spans="1:6" ht="17.399999999999999">
       <c r="A232" s="35">
         <v>240562</v>
       </c>
@@ -6303,7 +6361,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="19">
+    <row r="233" spans="1:6" ht="17.399999999999999">
       <c r="A233" s="35">
         <v>240563</v>
       </c>
@@ -6323,7 +6381,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="19">
+    <row r="234" spans="1:6" ht="17.399999999999999">
       <c r="A234" s="35">
         <v>240564</v>
       </c>
@@ -6343,7 +6401,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="19">
+    <row r="235" spans="1:6" ht="17.399999999999999">
       <c r="A235" s="35">
         <v>240565</v>
       </c>
@@ -6363,7 +6421,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19">
+    <row r="236" spans="1:6" ht="17.399999999999999">
       <c r="A236" s="35">
         <v>240566</v>
       </c>
@@ -6383,7 +6441,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="19">
+    <row r="237" spans="1:6" ht="17.399999999999999">
       <c r="A237" s="35">
         <v>240567</v>
       </c>
@@ -6403,7 +6461,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="19">
+    <row r="238" spans="1:6" ht="17.399999999999999">
       <c r="A238" s="35">
         <v>240568</v>
       </c>
@@ -6423,7 +6481,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="19">
+    <row r="239" spans="1:6" ht="17.399999999999999">
       <c r="A239" s="35">
         <v>240569</v>
       </c>
@@ -6443,7 +6501,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="19">
+    <row r="240" spans="1:6" ht="17.399999999999999">
       <c r="A240" s="35">
         <v>240570</v>
       </c>
@@ -6463,7 +6521,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19">
+    <row r="241" spans="1:6" ht="17.399999999999999">
       <c r="A241" s="35">
         <v>240571</v>
       </c>
@@ -6483,7 +6541,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="19">
+    <row r="242" spans="1:6" ht="17.399999999999999">
       <c r="A242" s="35">
         <v>240572</v>
       </c>
@@ -6503,7 +6561,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="19">
+    <row r="243" spans="1:6" ht="17.399999999999999">
       <c r="A243" s="35">
         <v>240573</v>
       </c>
@@ -6523,7 +6581,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="20" thickBot="1">
+    <row r="244" spans="1:6" ht="18" thickBot="1">
       <c r="A244" s="36">
         <v>240574</v>
       </c>
@@ -6543,7 +6601,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="19">
+    <row r="245" spans="1:6" ht="17.399999999999999">
       <c r="A245" s="34">
         <v>240575</v>
       </c>
@@ -6563,7 +6621,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="19">
+    <row r="246" spans="1:6" ht="17.399999999999999">
       <c r="A246" s="35">
         <v>240576</v>
       </c>
@@ -6583,7 +6641,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="19">
+    <row r="247" spans="1:6" ht="17.399999999999999">
       <c r="A247" s="35">
         <v>240577</v>
       </c>
@@ -6603,7 +6661,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="19">
+    <row r="248" spans="1:6" ht="17.399999999999999">
       <c r="A248" s="35">
         <v>240578</v>
       </c>
@@ -6623,7 +6681,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="19">
+    <row r="249" spans="1:6" ht="17.399999999999999">
       <c r="A249" s="35">
         <v>240579</v>
       </c>
@@ -6643,7 +6701,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="19">
+    <row r="250" spans="1:6" ht="17.399999999999999">
       <c r="A250" s="35">
         <v>240580</v>
       </c>
@@ -6663,7 +6721,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="19">
+    <row r="251" spans="1:6" ht="17.399999999999999">
       <c r="A251" s="35">
         <v>240581</v>
       </c>
@@ -6683,7 +6741,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="19">
+    <row r="252" spans="1:6" ht="17.399999999999999">
       <c r="A252" s="35">
         <v>240582</v>
       </c>
@@ -6703,7 +6761,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="19">
+    <row r="253" spans="1:6" ht="17.399999999999999">
       <c r="A253" s="35">
         <v>240583</v>
       </c>
@@ -6723,7 +6781,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="19">
+    <row r="254" spans="1:6" ht="17.399999999999999">
       <c r="A254" s="35">
         <v>240584</v>
       </c>
@@ -6743,7 +6801,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="19">
+    <row r="255" spans="1:6" ht="17.399999999999999">
       <c r="A255" s="35">
         <v>240585</v>
       </c>
@@ -6763,7 +6821,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="19">
+    <row r="256" spans="1:6" ht="17.399999999999999">
       <c r="A256" s="35">
         <v>240586</v>
       </c>
@@ -6783,7 +6841,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="19">
+    <row r="257" spans="1:6" ht="17.399999999999999">
       <c r="A257" s="35">
         <v>240587</v>
       </c>
@@ -6803,7 +6861,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="19">
+    <row r="258" spans="1:6" ht="17.399999999999999">
       <c r="A258" s="35">
         <v>240588</v>
       </c>
@@ -6823,7 +6881,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="19">
+    <row r="259" spans="1:6" ht="17.399999999999999">
       <c r="A259" s="35">
         <v>240589</v>
       </c>
@@ -6843,7 +6901,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19">
+    <row r="260" spans="1:6" ht="17.399999999999999">
       <c r="A260" s="35">
         <v>240590</v>
       </c>
@@ -6863,7 +6921,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="19">
+    <row r="261" spans="1:6" ht="17.399999999999999">
       <c r="A261" s="35">
         <v>240591</v>
       </c>
@@ -6883,7 +6941,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="19">
+    <row r="262" spans="1:6" ht="17.399999999999999">
       <c r="A262" s="35">
         <v>240592</v>
       </c>
@@ -6903,7 +6961,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19">
+    <row r="263" spans="1:6" ht="17.399999999999999">
       <c r="A263" s="35">
         <v>240593</v>
       </c>
@@ -6923,7 +6981,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="19">
+    <row r="264" spans="1:6" ht="17.399999999999999">
       <c r="A264" s="35">
         <v>240594</v>
       </c>
@@ -6943,7 +7001,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19">
+    <row r="265" spans="1:6" ht="17.399999999999999">
       <c r="A265" s="35">
         <v>240595</v>
       </c>
@@ -6963,7 +7021,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="19">
+    <row r="266" spans="1:6" ht="17.399999999999999">
       <c r="A266" s="35">
         <v>240596</v>
       </c>
@@ -6983,7 +7041,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="19">
+    <row r="267" spans="1:6" ht="17.399999999999999">
       <c r="A267" s="35">
         <v>240597</v>
       </c>
@@ -7003,7 +7061,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="19">
+    <row r="268" spans="1:6" ht="17.399999999999999">
       <c r="A268" s="35">
         <v>240598</v>
       </c>
@@ -7023,7 +7081,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="19">
+    <row r="269" spans="1:6" ht="17.399999999999999">
       <c r="A269" s="35">
         <v>240599</v>
       </c>
@@ -7043,7 +7101,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="19">
+    <row r="270" spans="1:6" ht="17.399999999999999">
       <c r="A270" s="35">
         <v>240600</v>
       </c>
@@ -7063,7 +7121,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="19">
+    <row r="271" spans="1:6" ht="17.399999999999999">
       <c r="A271" s="35">
         <v>240601</v>
       </c>
@@ -7083,7 +7141,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="19">
+    <row r="272" spans="1:6" ht="17.399999999999999">
       <c r="A272" s="35">
         <v>240602</v>
       </c>
@@ -7103,7 +7161,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="19">
+    <row r="273" spans="1:14" ht="17.399999999999999">
       <c r="A273" s="35">
         <v>240603</v>
       </c>
@@ -7123,7 +7181,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="20" thickBot="1">
+    <row r="274" spans="1:14" ht="18" thickBot="1">
       <c r="A274" s="36">
         <v>240604</v>
       </c>
@@ -7143,7 +7201,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="19">
+    <row r="275" spans="1:14" ht="17.399999999999999">
       <c r="A275" s="34">
         <v>240605</v>
       </c>
@@ -7163,7 +7221,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="19">
+    <row r="276" spans="1:14" ht="17.399999999999999">
       <c r="A276" s="35">
         <v>240606</v>
       </c>
@@ -7183,7 +7241,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="19">
+    <row r="277" spans="1:14" ht="17.399999999999999">
       <c r="A277" s="35">
         <v>240607</v>
       </c>
@@ -7203,7 +7261,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="19">
+    <row r="278" spans="1:14" ht="17.399999999999999">
       <c r="A278" s="35">
         <v>240608</v>
       </c>
@@ -7223,7 +7281,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="19">
+    <row r="279" spans="1:14" ht="17.399999999999999">
       <c r="A279" s="35">
         <v>240609</v>
       </c>
@@ -7243,7 +7301,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="19">
+    <row r="280" spans="1:14" ht="17.399999999999999">
       <c r="A280" s="35">
         <v>240610</v>
       </c>
@@ -7270,7 +7328,7 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
     </row>
-    <row r="281" spans="1:14" ht="19">
+    <row r="281" spans="1:14" ht="17.399999999999999">
       <c r="A281" s="35">
         <v>240611</v>
       </c>
@@ -7297,7 +7355,7 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
     </row>
-    <row r="282" spans="1:14" ht="19">
+    <row r="282" spans="1:14" ht="17.399999999999999">
       <c r="A282" s="35">
         <v>240612</v>
       </c>
@@ -7324,7 +7382,7 @@
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
     </row>
-    <row r="283" spans="1:14" ht="19">
+    <row r="283" spans="1:14" ht="17.399999999999999">
       <c r="A283" s="35">
         <v>240613</v>
       </c>
@@ -7351,7 +7409,7 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
     </row>
-    <row r="284" spans="1:14" ht="19">
+    <row r="284" spans="1:14" ht="17.399999999999999">
       <c r="A284" s="35">
         <v>240614</v>
       </c>
@@ -7378,7 +7436,7 @@
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
     </row>
-    <row r="285" spans="1:14" ht="19">
+    <row r="285" spans="1:14" ht="17.399999999999999">
       <c r="A285" s="35">
         <v>240615</v>
       </c>
@@ -7398,7 +7456,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="19">
+    <row r="286" spans="1:14" ht="17.399999999999999">
       <c r="A286" s="35">
         <v>240616</v>
       </c>
@@ -7418,7 +7476,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="19">
+    <row r="287" spans="1:14" ht="17.399999999999999">
       <c r="A287" s="35">
         <v>240617</v>
       </c>
@@ -7438,7 +7496,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="19">
+    <row r="288" spans="1:14" ht="17.399999999999999">
       <c r="A288" s="35">
         <v>240618</v>
       </c>
@@ -7458,7 +7516,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="19">
+    <row r="289" spans="1:6" ht="17.399999999999999">
       <c r="A289" s="35">
         <v>240619</v>
       </c>
@@ -7478,7 +7536,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="19">
+    <row r="290" spans="1:6" ht="17.399999999999999">
       <c r="A290" s="35">
         <v>240620</v>
       </c>
@@ -7498,7 +7556,7 @@
         <v>23.79</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="19">
+    <row r="291" spans="1:6" ht="17.399999999999999">
       <c r="A291" s="35">
         <v>240621</v>
       </c>
@@ -7518,7 +7576,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="19">
+    <row r="292" spans="1:6" ht="17.399999999999999">
       <c r="A292" s="35">
         <v>240622</v>
       </c>
@@ -7538,7 +7596,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="19">
+    <row r="293" spans="1:6" ht="17.399999999999999">
       <c r="A293" s="35">
         <v>240623</v>
       </c>
@@ -7558,7 +7616,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="19">
+    <row r="294" spans="1:6" ht="17.399999999999999">
       <c r="A294" s="35">
         <v>240624</v>
       </c>
@@ -7578,7 +7636,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="19">
+    <row r="295" spans="1:6" ht="17.399999999999999">
       <c r="A295" s="35">
         <v>240625</v>
       </c>
@@ -7598,7 +7656,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="19">
+    <row r="296" spans="1:6" ht="17.399999999999999">
       <c r="A296" s="35">
         <v>240626</v>
       </c>
@@ -7618,7 +7676,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="19">
+    <row r="297" spans="1:6" ht="17.399999999999999">
       <c r="A297" s="35">
         <v>240627</v>
       </c>
@@ -7638,7 +7696,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="19">
+    <row r="298" spans="1:6" ht="17.399999999999999">
       <c r="A298" s="35">
         <v>240628</v>
       </c>
@@ -7658,7 +7716,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="19">
+    <row r="299" spans="1:6" ht="17.399999999999999">
       <c r="A299" s="35">
         <v>240629</v>
       </c>
@@ -7678,7 +7736,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="19">
+    <row r="300" spans="1:6" ht="17.399999999999999">
       <c r="A300" s="35">
         <v>240630</v>
       </c>
@@ -7698,7 +7756,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="19">
+    <row r="301" spans="1:6" ht="17.399999999999999">
       <c r="A301" s="35">
         <v>240631</v>
       </c>
@@ -7718,7 +7776,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="19">
+    <row r="302" spans="1:6" ht="17.399999999999999">
       <c r="A302" s="35">
         <v>240632</v>
       </c>
@@ -7738,7 +7796,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="19">
+    <row r="303" spans="1:6" ht="17.399999999999999">
       <c r="A303" s="35">
         <v>240633</v>
       </c>
@@ -7758,7 +7816,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="19">
+    <row r="304" spans="1:6" ht="17.399999999999999">
       <c r="A304" s="35">
         <v>240634</v>
       </c>
@@ -7778,7 +7836,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="305" spans="1:14" ht="20" thickBot="1">
+    <row r="305" spans="1:14" ht="18" thickBot="1">
       <c r="A305" s="36">
         <v>240635</v>
       </c>
@@ -7798,7 +7856,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="19">
+    <row r="306" spans="1:14" ht="17.399999999999999">
       <c r="A306" s="34">
         <v>240636</v>
       </c>
@@ -7818,7 +7876,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="19">
+    <row r="307" spans="1:14" ht="17.399999999999999">
       <c r="A307" s="35">
         <v>240637</v>
       </c>
@@ -7838,7 +7896,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="19">
+    <row r="308" spans="1:14" ht="17.399999999999999">
       <c r="A308" s="35">
         <v>240638</v>
       </c>
@@ -7858,7 +7916,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="19">
+    <row r="309" spans="1:14" ht="17.399999999999999">
       <c r="A309" s="35">
         <v>240639</v>
       </c>
@@ -7885,7 +7943,7 @@
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
     </row>
-    <row r="310" spans="1:14" ht="19">
+    <row r="310" spans="1:14" ht="17.399999999999999">
       <c r="A310" s="35">
         <v>240640</v>
       </c>
@@ -7912,7 +7970,7 @@
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
     </row>
-    <row r="311" spans="1:14" ht="19">
+    <row r="311" spans="1:14" ht="17.399999999999999">
       <c r="A311" s="35">
         <v>240641</v>
       </c>
@@ -7939,7 +7997,7 @@
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
     </row>
-    <row r="312" spans="1:14" ht="19">
+    <row r="312" spans="1:14" ht="17.399999999999999">
       <c r="A312" s="35">
         <v>240642</v>
       </c>
@@ -7966,7 +8024,7 @@
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
     </row>
-    <row r="313" spans="1:14" ht="19">
+    <row r="313" spans="1:14" ht="17.399999999999999">
       <c r="A313" s="35">
         <v>240643</v>
       </c>
@@ -7993,7 +8051,7 @@
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
     </row>
-    <row r="314" spans="1:14" ht="19">
+    <row r="314" spans="1:14" ht="17.399999999999999">
       <c r="A314" s="35">
         <v>240644</v>
       </c>
@@ -8013,7 +8071,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="19">
+    <row r="315" spans="1:14" ht="17.399999999999999">
       <c r="A315" s="35">
         <v>240645</v>
       </c>
@@ -8033,7 +8091,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="316" spans="1:14" ht="19">
+    <row r="316" spans="1:14" ht="17.399999999999999">
       <c r="A316" s="35">
         <v>240646</v>
       </c>
@@ -8053,7 +8111,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="19">
+    <row r="317" spans="1:14" ht="17.399999999999999">
       <c r="A317" s="35">
         <v>240647</v>
       </c>
@@ -8073,7 +8131,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="19">
+    <row r="318" spans="1:14" ht="17.399999999999999">
       <c r="A318" s="35">
         <v>240648</v>
       </c>
@@ -8093,7 +8151,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="19">
+    <row r="319" spans="1:14" ht="17.399999999999999">
       <c r="A319" s="35">
         <v>240649</v>
       </c>
@@ -8113,7 +8171,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="19">
+    <row r="320" spans="1:14" ht="17.399999999999999">
       <c r="A320" s="35">
         <v>240650</v>
       </c>
@@ -8133,7 +8191,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="19">
+    <row r="321" spans="1:6" ht="17.399999999999999">
       <c r="A321" s="35">
         <v>240651</v>
       </c>
@@ -8153,7 +8211,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="19">
+    <row r="322" spans="1:6" ht="17.399999999999999">
       <c r="A322" s="35">
         <v>240652</v>
       </c>
@@ -8173,7 +8231,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="19">
+    <row r="323" spans="1:6" ht="17.399999999999999">
       <c r="A323" s="35">
         <v>240653</v>
       </c>
@@ -8193,7 +8251,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="19">
+    <row r="324" spans="1:6" ht="17.399999999999999">
       <c r="A324" s="35">
         <v>240654</v>
       </c>
@@ -8213,7 +8271,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="19">
+    <row r="325" spans="1:6" ht="17.399999999999999">
       <c r="A325" s="35">
         <v>240655</v>
       </c>
@@ -8233,7 +8291,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="19">
+    <row r="326" spans="1:6" ht="17.399999999999999">
       <c r="A326" s="35">
         <v>240656</v>
       </c>
@@ -8253,7 +8311,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="19">
+    <row r="327" spans="1:6" ht="17.399999999999999">
       <c r="A327" s="35">
         <v>240657</v>
       </c>
@@ -8273,7 +8331,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="19">
+    <row r="328" spans="1:6" ht="17.399999999999999">
       <c r="A328" s="35">
         <v>240658</v>
       </c>
@@ -8293,7 +8351,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="19">
+    <row r="329" spans="1:6" ht="17.399999999999999">
       <c r="A329" s="35">
         <v>240659</v>
       </c>
@@ -8313,7 +8371,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="19">
+    <row r="330" spans="1:6" ht="17.399999999999999">
       <c r="A330" s="35">
         <v>240660</v>
       </c>
@@ -8333,7 +8391,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="19">
+    <row r="331" spans="1:6" ht="17.399999999999999">
       <c r="A331" s="35">
         <v>240661</v>
       </c>
@@ -8353,7 +8411,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="19">
+    <row r="332" spans="1:6" ht="17.399999999999999">
       <c r="A332" s="35">
         <v>240662</v>
       </c>
@@ -8373,7 +8431,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="19">
+    <row r="333" spans="1:6" ht="17.399999999999999">
       <c r="A333" s="35">
         <v>240663</v>
       </c>
@@ -8393,7 +8451,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="19">
+    <row r="334" spans="1:6" ht="17.399999999999999">
       <c r="A334" s="35">
         <v>240664</v>
       </c>
@@ -8413,7 +8471,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="20" thickBot="1">
+    <row r="335" spans="1:6" ht="18" thickBot="1">
       <c r="A335" s="36">
         <v>240665</v>
       </c>
@@ -8433,7 +8491,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="19">
+    <row r="336" spans="1:6" ht="17.399999999999999">
       <c r="A336" s="34">
         <v>240666</v>
       </c>
@@ -8453,7 +8511,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="19">
+    <row r="337" spans="1:14" ht="17.399999999999999">
       <c r="A337" s="35">
         <v>240667</v>
       </c>
@@ -8473,7 +8531,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="338" spans="1:14" ht="19">
+    <row r="338" spans="1:14" ht="17.399999999999999">
       <c r="A338" s="35">
         <v>240668</v>
       </c>
@@ -8493,7 +8551,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="19">
+    <row r="339" spans="1:14" ht="17.399999999999999">
       <c r="A339" s="35">
         <v>240669</v>
       </c>
@@ -8513,7 +8571,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="340" spans="1:14" ht="19">
+    <row r="340" spans="1:14" ht="17.399999999999999">
       <c r="A340" s="35">
         <v>240670</v>
       </c>
@@ -8540,7 +8598,7 @@
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
     </row>
-    <row r="341" spans="1:14" ht="19">
+    <row r="341" spans="1:14" ht="17.399999999999999">
       <c r="A341" s="35">
         <v>240671</v>
       </c>
@@ -8567,7 +8625,7 @@
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
     </row>
-    <row r="342" spans="1:14" ht="19">
+    <row r="342" spans="1:14" ht="17.399999999999999">
       <c r="A342" s="35">
         <v>240672</v>
       </c>
@@ -8594,7 +8652,7 @@
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
     </row>
-    <row r="343" spans="1:14" ht="19">
+    <row r="343" spans="1:14" ht="17.399999999999999">
       <c r="A343" s="35">
         <v>240673</v>
       </c>
@@ -8621,7 +8679,7 @@
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
     </row>
-    <row r="344" spans="1:14" ht="19">
+    <row r="344" spans="1:14" ht="17.399999999999999">
       <c r="A344" s="35">
         <v>240674</v>
       </c>
@@ -8648,7 +8706,7 @@
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
     </row>
-    <row r="345" spans="1:14" ht="19">
+    <row r="345" spans="1:14" ht="17.399999999999999">
       <c r="A345" s="35">
         <v>240675</v>
       </c>
@@ -8675,7 +8733,7 @@
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
     </row>
-    <row r="346" spans="1:14" ht="19">
+    <row r="346" spans="1:14" ht="17.399999999999999">
       <c r="A346" s="35">
         <v>240676</v>
       </c>
@@ -8695,7 +8753,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="19">
+    <row r="347" spans="1:14" ht="17.399999999999999">
       <c r="A347" s="35">
         <v>240677</v>
       </c>
@@ -8715,7 +8773,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="19">
+    <row r="348" spans="1:14" ht="17.399999999999999">
       <c r="A348" s="35">
         <v>240678</v>
       </c>
@@ -8735,7 +8793,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="19">
+    <row r="349" spans="1:14" ht="17.399999999999999">
       <c r="A349" s="35">
         <v>240679</v>
       </c>
@@ -8755,7 +8813,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="19">
+    <row r="350" spans="1:14" ht="17.399999999999999">
       <c r="A350" s="35">
         <v>240680</v>
       </c>
@@ -8775,7 +8833,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="351" spans="1:14" ht="19">
+    <row r="351" spans="1:14" ht="17.399999999999999">
       <c r="A351" s="35">
         <v>240681</v>
       </c>
@@ -8795,7 +8853,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="19">
+    <row r="352" spans="1:14" ht="17.399999999999999">
       <c r="A352" s="35">
         <v>240682</v>
       </c>
@@ -8815,7 +8873,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="19">
+    <row r="353" spans="1:6" ht="17.399999999999999">
       <c r="A353" s="35">
         <v>240683</v>
       </c>
@@ -8835,7 +8893,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="19">
+    <row r="354" spans="1:6" ht="17.399999999999999">
       <c r="A354" s="35">
         <v>240684</v>
       </c>
@@ -8855,7 +8913,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="19">
+    <row r="355" spans="1:6" ht="17.399999999999999">
       <c r="A355" s="35">
         <v>240685</v>
       </c>
@@ -8875,7 +8933,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="19">
+    <row r="356" spans="1:6" ht="17.399999999999999">
       <c r="A356" s="35">
         <v>240686</v>
       </c>
@@ -8895,7 +8953,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19">
+    <row r="357" spans="1:6" ht="17.399999999999999">
       <c r="A357" s="35">
         <v>240687</v>
       </c>
@@ -8915,7 +8973,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19">
+    <row r="358" spans="1:6" ht="17.399999999999999">
       <c r="A358" s="35">
         <v>240688</v>
       </c>
@@ -8935,7 +8993,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="19">
+    <row r="359" spans="1:6" ht="17.399999999999999">
       <c r="A359" s="35">
         <v>240689</v>
       </c>
@@ -8955,7 +9013,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="19">
+    <row r="360" spans="1:6" ht="17.399999999999999">
       <c r="A360" s="35">
         <v>240690</v>
       </c>
@@ -8975,7 +9033,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="19">
+    <row r="361" spans="1:6" ht="17.399999999999999">
       <c r="A361" s="35">
         <v>240691</v>
       </c>
@@ -8995,7 +9053,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="19">
+    <row r="362" spans="1:6" ht="17.399999999999999">
       <c r="A362" s="35">
         <v>240692</v>
       </c>
@@ -9015,7 +9073,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="19">
+    <row r="363" spans="1:6" ht="17.399999999999999">
       <c r="A363" s="35">
         <v>240693</v>
       </c>
@@ -9035,7 +9093,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="19">
+    <row r="364" spans="1:6" ht="17.399999999999999">
       <c r="A364" s="35">
         <v>240694</v>
       </c>
@@ -9055,7 +9113,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="19">
+    <row r="365" spans="1:6" ht="17.399999999999999">
       <c r="A365" s="35">
         <v>240695</v>
       </c>
@@ -9075,7 +9133,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="20" thickBot="1">
+    <row r="366" spans="1:6" ht="18" thickBot="1">
       <c r="A366" s="36">
         <v>240696</v>
       </c>
@@ -9103,4 +9161,344 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AE5180-7EF3-4DD8-843A-AF9378D65707}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="37">
+        <f>AVERAGE('2558'!B2:B32)</f>
+        <v>27.199354838709692</v>
+      </c>
+      <c r="C2" s="37">
+        <f>AVERAGE('2558'!C2:C32)</f>
+        <v>28.721290322580629</v>
+      </c>
+      <c r="D2" s="37">
+        <f>AVERAGE('2558'!D2:D32)</f>
+        <v>25.696129032258053</v>
+      </c>
+      <c r="E2" s="37">
+        <f>AVERAGE('2558'!E2:E32)</f>
+        <v>22.099354838709662</v>
+      </c>
+      <c r="F2" s="38">
+        <f>AVERAGE('2558'!F2:F32)</f>
+        <v>26.025483870967747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="25">
+        <f>AVERAGE('2558'!B33:B60)</f>
+        <v>27.151428571428564</v>
+      </c>
+      <c r="C3" s="25">
+        <f>AVERAGE('2558'!C33:C60)</f>
+        <v>28.471428571428586</v>
+      </c>
+      <c r="D3" s="25">
+        <f>AVERAGE('2558'!D33:D60)</f>
+        <v>25.751428571428573</v>
+      </c>
+      <c r="E3" s="25">
+        <f>AVERAGE('2558'!E33:E60)</f>
+        <v>22.672857142857147</v>
+      </c>
+      <c r="F3" s="26">
+        <f>AVERAGE('2558'!F33:F60)</f>
+        <v>26.214999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="25">
+        <f>AVERAGE('2558'!B61:B91)</f>
+        <v>28.031612903225824</v>
+      </c>
+      <c r="C4" s="25">
+        <f>AVERAGE('2558'!C61:C91)</f>
+        <v>29.351612903225803</v>
+      </c>
+      <c r="D4" s="25">
+        <f>AVERAGE('2558'!D61:D91)</f>
+        <v>26.631612903225783</v>
+      </c>
+      <c r="E4" s="25">
+        <f>AVERAGE('2558'!E61:E91)</f>
+        <v>23.480000000000011</v>
+      </c>
+      <c r="F4" s="26">
+        <f>AVERAGE('2558'!F61:F91)</f>
+        <v>26.764193548387098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="25">
+        <f>AVERAGE('2558'!B92:B121)</f>
+        <v>27.229999999999993</v>
+      </c>
+      <c r="C5" s="25">
+        <f>AVERAGE('2558'!C92:C121)</f>
+        <v>28.099999999999987</v>
+      </c>
+      <c r="D5" s="25">
+        <f>AVERAGE('2558'!D92:D121)</f>
+        <v>25.829999999999988</v>
+      </c>
+      <c r="E5" s="25">
+        <f>AVERAGE('2558'!E92:E121)</f>
+        <v>22.810000000000002</v>
+      </c>
+      <c r="F5" s="26">
+        <f>AVERAGE('2558'!F92:F121)</f>
+        <v>25.256666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25">
+        <f>AVERAGE('2558'!B122:B152)</f>
+        <v>28.260645161290331</v>
+      </c>
+      <c r="C6" s="25">
+        <f>AVERAGE('2558'!C122:C152)</f>
+        <v>29.080645161290313</v>
+      </c>
+      <c r="D6" s="25">
+        <f>AVERAGE('2558'!D122:D152)</f>
+        <v>26.860645161290307</v>
+      </c>
+      <c r="E6" s="25">
+        <f>AVERAGE('2558'!E122:E152)</f>
+        <v>23.186451612903209</v>
+      </c>
+      <c r="F6" s="26">
+        <f>AVERAGE('2558'!F122:F152)</f>
+        <v>26.070645161290322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="25">
+        <f>AVERAGE('2558'!B153:B182)</f>
+        <v>28.749999999999989</v>
+      </c>
+      <c r="C7" s="25">
+        <f>AVERAGE('2558'!C153:C182)</f>
+        <v>29.56999999999999</v>
+      </c>
+      <c r="D7" s="25">
+        <f>AVERAGE('2558'!D153:D182)</f>
+        <v>27.349999999999987</v>
+      </c>
+      <c r="E7" s="25">
+        <f>AVERAGE('2558'!E153:E182)</f>
+        <v>23.369999999999997</v>
+      </c>
+      <c r="F7" s="26">
+        <f>AVERAGE('2558'!F153:F182)</f>
+        <v>25.896666666666679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="25">
+        <f>AVERAGE('2558'!B183:B213)</f>
+        <v>27.609032258064516</v>
+      </c>
+      <c r="C8" s="25">
+        <f>AVERAGE('2558'!C183:C213)</f>
+        <v>28.429032258064534</v>
+      </c>
+      <c r="D8" s="25">
+        <f>AVERAGE('2558'!D183:D213)</f>
+        <v>26.209032258064529</v>
+      </c>
+      <c r="E8" s="25">
+        <f>AVERAGE('2558'!E183:E213)</f>
+        <v>22.805806451612892</v>
+      </c>
+      <c r="F8" s="26">
+        <f>AVERAGE('2558'!F183:F213)</f>
+        <v>24.506129032258073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="25">
+        <f>AVERAGE('2558'!B214:B244)</f>
+        <v>26.625161290322584</v>
+      </c>
+      <c r="C9" s="25">
+        <f>AVERAGE('2558'!C214:C244)</f>
+        <v>27.445161290322584</v>
+      </c>
+      <c r="D9" s="25">
+        <f>AVERAGE('2558'!D214:D244)</f>
+        <v>25.225161290322564</v>
+      </c>
+      <c r="E9" s="25">
+        <f>AVERAGE('2558'!E214:E244)</f>
+        <v>22.305806451612899</v>
+      </c>
+      <c r="F9" s="26">
+        <f>AVERAGE('2558'!F214:F244)</f>
+        <v>22.902903225806444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="25">
+        <f>AVERAGE('2558'!B245:B274)</f>
+        <v>25.88</v>
+      </c>
+      <c r="C10" s="25">
+        <f>AVERAGE('2558'!C245:C274)</f>
+        <v>26.39333333333332</v>
+      </c>
+      <c r="D10" s="25">
+        <f>AVERAGE('2558'!D245:D274)</f>
+        <v>24.480000000000011</v>
+      </c>
+      <c r="E10" s="25">
+        <f>AVERAGE('2558'!E245:E274)</f>
+        <v>22.173333333333339</v>
+      </c>
+      <c r="F10" s="26">
+        <f>AVERAGE('2558'!F245:F274)</f>
+        <v>23.209999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="25">
+        <f>AVERAGE('2558'!B275:B305)</f>
+        <v>25.992903225806455</v>
+      </c>
+      <c r="C11" s="25">
+        <f>AVERAGE('2558'!C275:C305)</f>
+        <v>26.412903225806456</v>
+      </c>
+      <c r="D11" s="25">
+        <f>AVERAGE('2558'!D275:D305)</f>
+        <v>24.087741935483873</v>
+      </c>
+      <c r="E11" s="25">
+        <f>AVERAGE('2558'!E275:E305)</f>
+        <v>20.284516129032255</v>
+      </c>
+      <c r="F11" s="26">
+        <f>AVERAGE('2558'!F275:F305)</f>
+        <v>23.309354838709677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="25">
+        <f>AVERAGE('2558'!B306:B335)</f>
+        <v>25.126666666666654</v>
+      </c>
+      <c r="C12" s="25">
+        <f>AVERAGE('2558'!C306:C335)</f>
+        <v>25.546666666666685</v>
+      </c>
+      <c r="D12" s="25">
+        <f>AVERAGE('2558'!D306:D335)</f>
+        <v>23.186666666666671</v>
+      </c>
+      <c r="E12" s="25">
+        <f>AVERAGE('2558'!E306:E335)</f>
+        <v>19.713333333333331</v>
+      </c>
+      <c r="F12" s="26">
+        <f>AVERAGE('2558'!F306:F335)</f>
+        <v>23.059999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="27">
+        <f>AVERAGE('2558'!B336:B366)</f>
+        <v>23.776774193548384</v>
+      </c>
+      <c r="C13" s="27">
+        <f>AVERAGE('2558'!C336:C366)</f>
+        <v>24.196774193548375</v>
+      </c>
+      <c r="D13" s="27">
+        <f>AVERAGE('2558'!D336:D366)</f>
+        <v>21.836774193548401</v>
+      </c>
+      <c r="E13" s="27">
+        <f>AVERAGE('2558'!E336:E366)</f>
+        <v>19.014193548387098</v>
+      </c>
+      <c r="F13" s="28">
+        <f>AVERAGE('2558'!F336:F366)</f>
+        <v>21.373870967741937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Oil price information/2558.xlsx
+++ b/Oil price information/2558.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E978C3-267F-41E8-B00B-4E6D75AD51F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E56CB0-02D9-4A53-A471-9B997EF51949}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" activeTab="1" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -544,14 +544,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,8 +583,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624B7881-4D5C-0745-8D44-E6A170A96F56}">
   <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView topLeftCell="A347" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:M20"/>
+    <sheetView topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15"/>
@@ -982,14 +982,14 @@
         <v>29.99</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="35">
@@ -1011,12 +1011,12 @@
         <v>29.99</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1">
       <c r="A4" s="35">
@@ -1060,14 +1060,14 @@
         <v>26.39</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="19.05" customHeight="1" thickBot="1">
       <c r="A6" s="35">
@@ -1089,12 +1089,12 @@
         <v>26.39</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="35">
@@ -1729,14 +1729,14 @@
         <v>25.49</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="35">
@@ -1758,12 +1758,12 @@
         <v>25.49</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="35">
@@ -9179,7 +9179,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -9199,7 +9199,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="37">
@@ -9224,7 +9224,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="25">
@@ -9249,7 +9249,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="25">
@@ -9274,7 +9274,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="25">
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="25">
@@ -9324,7 +9324,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="53" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="25">
@@ -9349,7 +9349,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="25">
@@ -9374,7 +9374,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25">
@@ -9399,7 +9399,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="25">
@@ -9424,7 +9424,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="25">
@@ -9449,7 +9449,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="53" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="25">
@@ -9474,7 +9474,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="54" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="27">

--- a/Oil price information/2558.xlsx
+++ b/Oil price information/2558.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E56CB0-02D9-4A53-A471-9B997EF51949}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60777055-0B3F-46B6-876A-00E396AC4DDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19464" activeTab="1" xr2:uid="{1C378A14-04A6-8342-905E-8F932BB21EA5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>Ultra Force Diesel</t>
   </si>
 </sst>
 </file>
@@ -547,6 +550,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,15 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,14 +985,14 @@
         <v>29.99</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="A3" s="35">
@@ -1011,12 +1014,12 @@
         <v>29.99</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1">
       <c r="A4" s="35">
@@ -1060,14 +1063,14 @@
         <v>26.39</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="19.05" customHeight="1" thickBot="1">
       <c r="A6" s="35">
@@ -1089,12 +1092,12 @@
         <v>26.39</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="35">
@@ -1729,14 +1732,14 @@
         <v>25.49</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="35">
@@ -1758,12 +1761,12 @@
         <v>25.49</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="35">
@@ -9168,7 +9171,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9195,11 +9198,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="37">
@@ -9224,7 +9227,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="25">
@@ -9249,7 +9252,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="25">
@@ -9274,7 +9277,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="25">
@@ -9299,7 +9302,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="25">
@@ -9324,7 +9327,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="25">
@@ -9349,7 +9352,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="25">
@@ -9374,7 +9377,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25">
@@ -9399,7 +9402,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="25">
@@ -9424,7 +9427,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="25">
@@ -9449,7 +9452,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="25">
@@ -9474,7 +9477,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="27">
